--- a/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>kWPqK338</t>
-  </si>
-  <si>
-    <t>xydntam18</t>
-  </si>
-  <si>
-    <t>SEt24!#j</t>
+    <t>mTBhw539</t>
+  </si>
+  <si>
+    <t>glzyafo15</t>
+  </si>
+  <si>
+    <t>D7By#g9!</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>QmSGTMZp</t>
-  </si>
-  <si>
-    <t>lajY</t>
+    <t>gQhpCFEG</t>
+  </si>
+  <si>
+    <t>HZCf</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>jrpaB602</t>
-  </si>
-  <si>
-    <t>mxgtktk14</t>
-  </si>
-  <si>
-    <t>P!2d#7mN</t>
-  </si>
-  <si>
-    <t>IMIHRjWV</t>
-  </si>
-  <si>
-    <t>btGl</t>
+    <t>ltdqd443</t>
+  </si>
+  <si>
+    <t>kjdkvhz38</t>
+  </si>
+  <si>
+    <t>z7$rU&amp;6K</t>
+  </si>
+  <si>
+    <t>xiMEYvUh</t>
+  </si>
+  <si>
+    <t>plSY</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004201</v>
+        <v>231006269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004200</v>
+        <v>231006268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>mTBhw539</t>
-  </si>
-  <si>
-    <t>glzyafo15</t>
-  </si>
-  <si>
-    <t>D7By#g9!</t>
+    <t>kWPqK338</t>
+  </si>
+  <si>
+    <t>xydntam18</t>
+  </si>
+  <si>
+    <t>SEt24!#j</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>gQhpCFEG</t>
-  </si>
-  <si>
-    <t>HZCf</t>
+    <t>QmSGTMZp</t>
+  </si>
+  <si>
+    <t>lajY</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>ltdqd443</t>
-  </si>
-  <si>
-    <t>kjdkvhz38</t>
-  </si>
-  <si>
-    <t>z7$rU&amp;6K</t>
-  </si>
-  <si>
-    <t>xiMEYvUh</t>
-  </si>
-  <si>
-    <t>plSY</t>
+    <t>jrpaB602</t>
+  </si>
+  <si>
+    <t>mxgtktk14</t>
+  </si>
+  <si>
+    <t>P!2d#7mN</t>
+  </si>
+  <si>
+    <t>IMIHRjWV</t>
+  </si>
+  <si>
+    <t>btGl</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006269</v>
+        <v>231004201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006268</v>
+        <v>231004200</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForInlineViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>kWPqK338</t>
-  </si>
-  <si>
-    <t>xydntam18</t>
-  </si>
-  <si>
-    <t>SEt24!#j</t>
+    <t>gudbN200</t>
+  </si>
+  <si>
+    <t>cptaakv72</t>
+  </si>
+  <si>
+    <t>x#$CJ6j2</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>QmSGTMZp</t>
-  </si>
-  <si>
-    <t>lajY</t>
+    <t>yseVZrQU</t>
+  </si>
+  <si>
+    <t>xeGa</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>jrpaB602</t>
-  </si>
-  <si>
-    <t>mxgtktk14</t>
-  </si>
-  <si>
-    <t>P!2d#7mN</t>
-  </si>
-  <si>
-    <t>IMIHRjWV</t>
-  </si>
-  <si>
-    <t>btGl</t>
+    <t>mzlLH609</t>
+  </si>
+  <si>
+    <t>uuwozii72</t>
+  </si>
+  <si>
+    <t>u5U%&amp;aK3</t>
+  </si>
+  <si>
+    <t>sfcHflqi</t>
+  </si>
+  <si>
+    <t>iSIt</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004201</v>
+        <v>231011130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004200</v>
+        <v>231011129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
